--- a/analysis/metadata/P16_4/P16_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P16_4/P16_4_minimal_metadata.xlsx
@@ -461,6 +461,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>glumsø</t>
@@ -488,12 +493,27 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
           <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -519,6 +539,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
           <t>glumsø</t>
@@ -546,12 +571,27 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
           <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -577,6 +617,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
           <t>glumsø</t>
@@ -604,12 +649,27 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
           <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -635,6 +695,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
           <t>glumsø</t>
@@ -662,12 +727,27 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -693,6 +773,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
           <t>glumsø</t>
@@ -720,12 +805,27 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
           <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -751,6 +851,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>glumsø</t>
@@ -778,12 +883,27 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
           <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -809,6 +929,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G8" t="inlineStr">
         <is>
           <t>glumsø</t>
@@ -836,12 +961,27 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
           <t>2019-01-01</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -867,6 +1007,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3140</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>blommenslyst</t>
@@ -889,12 +1034,27 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Pollution results unknown</t>
         </is>
       </c>
     </row>
@@ -920,6 +1080,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G10" t="inlineStr">
         <is>
           <t>blommenslyst</t>
@@ -942,12 +1107,27 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -973,6 +1153,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>blommenslyst</t>
@@ -995,12 +1180,27 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
           <t>2021-12-01</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -1026,6 +1226,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G12" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -1048,12 +1253,27 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -1079,6 +1299,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G13" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -1106,12 +1331,27 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -1137,6 +1377,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -1159,12 +1404,27 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -1190,6 +1450,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G15" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -1212,12 +1477,27 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -1243,6 +1523,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G16" t="inlineStr">
         <is>
           <t>ebeltoft</t>
@@ -1265,12 +1550,27 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
           <t>2021-07-01</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -1290,6 +1590,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G17" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1317,12 +1622,27 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -1342,6 +1662,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1369,12 +1694,27 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -1394,6 +1734,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G19" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1421,12 +1766,27 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -1446,6 +1806,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G20" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1473,12 +1838,27 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -1498,6 +1878,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1525,12 +1910,27 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
@@ -1550,6 +1950,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1572,12 +1977,27 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -1597,6 +2017,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G23" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1619,12 +2044,27 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -1644,6 +2084,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1666,12 +2111,27 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>No pollution</t>
         </is>
       </c>
     </row>
@@ -1691,6 +2151,11 @@
           <t>groundwater</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3130</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>city x</t>
@@ -1718,12 +2183,27 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Urban</t>
+          <t>Subterranean</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
           <t>2021-09-01</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>Freshwater</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Groundwater</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Polluted</t>
         </is>
       </c>
     </row>
